--- a/Report/1st/result/aa.xlsx
+++ b/Report/1st/result/aa.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kou\Desktop\4J_Simulation\Report\1st\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7EC6BC-8270-43FB-8EA1-86CB31038EE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32C22BF-1029-4FEF-87E3-DFC227BA55E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{5B3A6FAC-58A5-4155-80AD-884F334E0273}"/>
+    <workbookView xWindow="-4395" yWindow="4845" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{5B3A6FAC-58A5-4155-80AD-884F334E0273}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="オイラー" sheetId="3" r:id="rId3"/>
+    <sheet name="ホイン" sheetId="9" r:id="rId4"/>
+    <sheet name="RK" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>分割数</t>
     <rPh sb="0" eb="3">
@@ -66,11 +70,49 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算誤差</t>
+    <rPh sb="0" eb="4">
+      <t>ケイサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オイラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h=0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h=0.05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h=0.025</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,8 +152,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -145,8 +190,343 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>計算結果</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.56409900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55308400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54954400000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54936600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54932099999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54930999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54930699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54930599999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54930599999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B4E-4A6A-9A1C-1E69BB233E0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>解析解</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.549306144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.549306144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.549306144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.549306144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.549306144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.549306144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.549306144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.549306144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.549306144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.549306144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B4E-4A6A-9A1C-1E69BB233E0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="463798248"/>
+        <c:axId val="463794968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="463798248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463794968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="463794968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463798248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74906035564575735"/>
+          <c:y val="5.5521959181310039E-2"/>
+          <c:w val="0.20489657711098128"/>
+          <c:h val="0.15512043123992336"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -159,12 +539,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -174,8 +551,61 @@
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.74803149606299213" l="0.23622047244094488" r="0.23622047244094488" t="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+    <c:pageSetup paperSize="8" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -198,39 +628,39 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet2!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.56409900000000002</c:v>
+                  <c:v>0.5235987902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55308400000000002</c:v>
+                  <c:v>1.0022798776999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55025599999999997</c:v>
+                  <c:v>1.0001345873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54954400000000003</c:v>
+                  <c:v>1.0000083447000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54936600000000002</c:v>
+                  <c:v>1.000000596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54932099999999995</c:v>
+                  <c:v>1.0000001192000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54930999999999996</c:v>
+                  <c:v>0.99999994039999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54930699999999999</c:v>
+                  <c:v>1.0000001192000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54930599999999996</c:v>
+                  <c:v>0.99999970199999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54930599999999996</c:v>
+                  <c:v>1.0000002384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -238,7 +668,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B50-40FE-870C-F2EAC736FA52}"/>
+              <c16:uniqueId val="{00000000-E831-44D9-97B7-DCCC05E82DCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -250,11 +680,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="462222696"/>
-        <c:axId val="462222368"/>
+        <c:axId val="553111880"/>
+        <c:axId val="553109256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="462222696"/>
+        <c:axId val="553111880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,6 +704,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -281,10 +712,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -310,14 +738,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462222368"/>
+        <c:crossAx val="553109256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="462222368"/>
+        <c:axId val="553109256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -325,28 +755,22 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -372,7 +796,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462222696"/>
+        <c:crossAx val="553111880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -428,7 +852,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -442,50 +866,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>解析解</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -494,92 +892,296 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="9"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>9</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>オイラー!$A$1:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57500000000000018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.62500000000000022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67500000000000027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72500000000000031</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77500000000000036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.80000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.87500000000000044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92500000000000049</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97500000000000053</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>オイラー!$B$1:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.56409900000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55308400000000002</c:v>
+                  <c:v>1.0253151205244289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55025599999999997</c:v>
+                  <c:v>1.0512710963760241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54954400000000003</c:v>
+                  <c:v>1.0778841508846315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54936600000000002</c:v>
+                  <c:v>1.1051709180756477</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54932099999999995</c:v>
+                  <c:v>1.1331484530668263</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54930999999999996</c:v>
+                  <c:v>1.1618342427282831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54930699999999999</c:v>
+                  <c:v>1.1912462166123581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54930599999999996</c:v>
+                  <c:v>1.2214027581601699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54930599999999996</c:v>
+                  <c:v>1.2523227161918644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2840254166877414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3165306748676215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3498588075760032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3840306459807514</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4190675485932573</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4549914146182015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4918246976412703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5295904196633789</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5683121854901689</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6080141974857831</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6487212707001284</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6904588483790917</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7332530178673955</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7771305269140387</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8221188003905093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8682459574322228</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9155408290138964</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9640329759698476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0137527074704771</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0647310999664872</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1170000166126752</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.170592127183443</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2255409284924683</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2818807653293045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3396468519259921</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.398875293967099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4596031111569507</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5218682603581493</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5857096593158477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6511672109826079</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7182818284590464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B4E-4A6A-9A1C-1E69BB233E0F}"/>
+              <c16:uniqueId val="{00000001-7E70-45F1-BDD7-B932C3A776CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>オイラー!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>h=0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -588,81 +1190,551 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="9"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>9</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>オイラー!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$12</c:f>
+              <c:f>オイラー!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.549306144</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.549306144</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.549306144</c:v>
+                  <c:v>1.331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.549306144</c:v>
+                  <c:v>1.4641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.549306144</c:v>
+                  <c:v>1.6105100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.549306144</c:v>
+                  <c:v>1.7715609999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.549306144</c:v>
+                  <c:v>1.948717</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.549306144</c:v>
+                  <c:v>2.143589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.549306144</c:v>
+                  <c:v>2.3579479999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.549306144</c:v>
+                  <c:v>2.5937420000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B4E-4A6A-9A1C-1E69BB233E0F}"/>
+              <c16:uniqueId val="{00000002-7E70-45F1-BDD7-B932C3A776CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>オイラー!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>h=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>オイラー!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>オイラー!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1576249999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.215506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2762819999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.340096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4071</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.477455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.551328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.628895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7103390000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7958559999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8856489999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.979932</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0789279999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1828750000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2920180000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4066190000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5269499999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6532979999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E70-45F1-BDD7-B932C3A776CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>オイラー!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>h=0.025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>オイラー!$J$2:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>オイラー!$K$2:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0506249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.076891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1038129999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.131408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1596930000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1886859999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2184029999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2488630000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2800849999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.312087</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.344889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.378511</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.412974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4482980000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4845060000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5216179999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5596589999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5986499999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6386160000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6795819999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.721571</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7646109999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8087260000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.853944</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.900293</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9478</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9964949999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0464069999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0975679999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.150007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.203757</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2588509999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3153220000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.373205</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4325350000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4933489999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.555682</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6195740000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6850640000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7E70-45F1-BDD7-B932C3A776CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -674,13 +1746,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463798248"/>
-        <c:axId val="463794968"/>
+        <c:axId val="647934008"/>
+        <c:axId val="647936632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463798248"/>
+        <c:axId val="647934008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -688,10 +1762,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -699,17 +1770,14 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -720,7 +1788,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -735,14 +1803,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463794968"/>
+        <c:crossAx val="647936632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463794968"/>
+        <c:axId val="647936632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -761,17 +1830,14 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -782,7 +1848,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -797,10 +1863,23 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463798248"/>
+        <c:crossAx val="647934008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -808,7 +1887,27 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -825,12 +1924,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -840,7 +1934,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -848,7 +1942,2149 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>解析解</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ホイン!$A$1:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57500000000000018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.62500000000000022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67500000000000027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72500000000000031</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77500000000000036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.80000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.87500000000000044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92500000000000049</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97500000000000053</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ホイン!$B$1:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0253151205244289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0512710963760241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0778841508846315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1051709180756477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1331484530668263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1618342427282831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1912462166123581</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2214027581601699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2523227161918644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2840254166877414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3165306748676215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3498588075760032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3840306459807514</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4190675485932573</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4549914146182015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4918246976412703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5295904196633789</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5683121854901689</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6080141974857831</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6487212707001284</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6904588483790917</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7332530178673955</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7771305269140387</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8221188003905093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8682459574322228</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9155408290138964</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9640329759698476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0137527074704771</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0647310999664872</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1170000166126752</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.170592127183443</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2255409284924683</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2818807653293045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3396468519259921</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.398875293967099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4596031111569507</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5218682603581493</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5857096593158477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6511672109826079</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7182818284590464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6409-42CA-B012-D2AD8787EFB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>h=0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ホイン!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ホイン!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.221025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3492329999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4909019999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6474470000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8204290000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.011574</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2227890000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4561820000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7140810000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6409-42CA-B012-D2AD8787EFB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>h=0.05</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ホイン!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ホイン!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.05125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.105127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.161764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2213050000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2838970000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.349696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.418868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4915849999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5680289999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.64839</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7328699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.82168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.915041</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0131869999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1163630000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2248260000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3388490000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4587150000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.584724</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7171910000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6409-42CA-B012-D2AD8787EFB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>h=0.025</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ホイン!$J$2:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ホイン!$K$2:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.0253129999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.051266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0778760000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1051599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1331340000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.161816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.191225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2213780000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.252294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2839929999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3164940000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.349817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.383985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.419017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.454936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4917640000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5295240000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5682400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.607936</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6486369999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6903680000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7331559999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.777026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8220069999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8681270000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9154139999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.963897</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0136090000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.064578</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.116838</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.17042</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2253590000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2816879999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3394439999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3986610000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4593769999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.52163</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5854590000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.650903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7180040000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6409-42CA-B012-D2AD8787EFB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="647934008"/>
+        <c:axId val="647936632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="647934008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647936632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="647936632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647934008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>解析解</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ホイン!$A$1:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57500000000000018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.62500000000000022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67500000000000027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72500000000000031</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77500000000000036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.80000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.87500000000000044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92500000000000049</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97500000000000053</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ホイン!$B$1:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0253151205244289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0512710963760241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0778841508846315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1051709180756477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1331484530668263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1618342427282831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1912462166123581</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2214027581601699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2523227161918644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2840254166877414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3165306748676215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3498588075760032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3840306459807514</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4190675485932573</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4549914146182015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4918246976412703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5295904196633789</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5683121854901689</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6080141974857831</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6487212707001284</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6904588483790917</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7332530178673955</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7771305269140387</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8221188003905093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8682459574322228</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9155408290138964</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9640329759698476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0137527074704771</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0647310999664872</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1170000166126752</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.170592127183443</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2255409284924683</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2818807653293045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3396468519259921</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.398875293967099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4596031111569507</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5218682603581493</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5857096593158477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6511672109826079</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7182818284590464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F96C-4663-A624-104867C16ED9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>h=0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RK!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RK!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1051709999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.221403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.349858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.491824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6487210000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8221179999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0137520000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2255400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4596010000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.71828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F96C-4663-A624-104867C16ED9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>h=0.05</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RK!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RK!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0512710000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1051709999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.161834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.221403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.284025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3498589999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.419068</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.491825</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5683119999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6487210000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7332529999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.822119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9155409999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0137529999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2255410000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3396469999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.459603</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5857100000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7182819999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F96C-4663-A624-104867C16ED9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>h=0.025</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RK!$J$2:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RK!$K$2:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.025315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0512710000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0778840000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1051709999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.133148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.161834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.191246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.221403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2523230000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.284025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3165309999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3498589999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.384031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.419068</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4549909999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.491825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.52959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5683119999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6080140000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6487210000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6904589999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7332529999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.777131</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.822119</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8682460000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9155409999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9640329999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0137529999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0647310000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.117</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1705920000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2255410000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2818809999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3396469999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3988749999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.459603</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.521868</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5857100000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6511670000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7182819999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F96C-4663-A624-104867C16ED9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="647934008"/>
+        <c:axId val="647936632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="647934008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647936632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="647936632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647934008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -933,6 +4169,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1965,44 +5321,1556 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9158FEDB-DD22-4F03-8713-C7355159502E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2033,7 +6901,175 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>862012</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807AFF44-758B-462B-B4B3-277C1979BAAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>371473</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07885B40-4A52-47B0-BDE5-66BA8981216C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>604403</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128155</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDE3771-9946-4BF8-B3F8-22C495DBF83F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>604403</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128156</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AF1984-36A2-41D3-8A7B-6FA1B7636F47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2341,8 +7377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7616E0-2659-4F5B-A372-B7E61D615B9D}">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="G2:G11 C2:C11"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2507,4 +7543,2826 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5161FB85-D8B7-4101-97AB-209640B521DD}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5235987902</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.4764012098</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.52359877560000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.47640122439999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.0022798776999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.2798776999999998E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0022798774999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.2798775000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0001345873</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.345873E-4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0001345850000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.34585E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0000083447000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.3446999999999999E-6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0000082955</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.2955000000000005E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.000000596</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.9599999999999999E-7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0000005166999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.1669999999999996E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0000001192000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.192E-7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.0000000323</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.2299999999999998E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.99999994039999995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.9599999999999998E-8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0000000019999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0000001192000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.192E-7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.0000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.99999970199999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.9799999999999999E-7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.0000002384</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.3839999999999999E-7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AC10DE-5620-4C12-8D1C-3777FCD4A540}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>EXP($A1)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B2">
+        <f>EXP($A2)</f>
+        <v>1.0253151205244289</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.05</v>
+      </c>
+      <c r="H2">
+        <v>1.05</v>
+      </c>
+      <c r="J2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f>$A2+0.025</f>
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B41" si="0">EXP($A3)</f>
+        <v>1.0512710963760241</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>1.21</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>1.1025</v>
+      </c>
+      <c r="J3">
+        <v>0.05</v>
+      </c>
+      <c r="K3">
+        <v>1.0506249999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" ref="A4:A54" si="1">$A3+0.025</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.0778841508846315</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>1.331</v>
+      </c>
+      <c r="G4">
+        <v>0.15</v>
+      </c>
+      <c r="H4">
+        <v>1.1576249999999999</v>
+      </c>
+      <c r="J4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.076891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.1051709180756477</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>1.4641</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>1.215506</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>1.1038129999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.1331484530668263</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>1.6105100000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <v>1.2762819999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.125</v>
+      </c>
+      <c r="K6">
+        <v>1.131408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.1618342427282831</v>
+      </c>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>1.7715609999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>1.340096</v>
+      </c>
+      <c r="J7">
+        <v>0.15</v>
+      </c>
+      <c r="K7">
+        <v>1.1596930000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.1912462166123581</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>1.948717</v>
+      </c>
+      <c r="G8">
+        <v>0.35</v>
+      </c>
+      <c r="H8">
+        <v>1.4071</v>
+      </c>
+      <c r="J8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K8">
+        <v>1.1886859999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.2214027581601699</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>2.143589</v>
+      </c>
+      <c r="G9">
+        <v>0.4</v>
+      </c>
+      <c r="H9">
+        <v>1.477455</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>1.2184029999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.2523227161918644</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>2.3579479999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.45</v>
+      </c>
+      <c r="H10">
+        <v>1.551328</v>
+      </c>
+      <c r="J10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K10">
+        <v>1.2488630000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.2840254166877414</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2.5937420000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>1.628895</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <v>1.2800849999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.3165306748676215</v>
+      </c>
+      <c r="G12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H12">
+        <v>1.7103390000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K12">
+        <v>1.312087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.3498588075760032</v>
+      </c>
+      <c r="G13">
+        <v>0.6</v>
+      </c>
+      <c r="H13">
+        <v>1.7958559999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <v>1.344889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.3840306459807514</v>
+      </c>
+      <c r="G14">
+        <v>0.65</v>
+      </c>
+      <c r="H14">
+        <v>1.8856489999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K14">
+        <v>1.378511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.4190675485932573</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>1.979932</v>
+      </c>
+      <c r="J15">
+        <v>0.35</v>
+      </c>
+      <c r="K15">
+        <v>1.412974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.4549914146182015</v>
+      </c>
+      <c r="G16">
+        <v>0.75</v>
+      </c>
+      <c r="H16">
+        <v>2.0789279999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.375</v>
+      </c>
+      <c r="K16">
+        <v>1.4482980000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.4918246976412703</v>
+      </c>
+      <c r="G17">
+        <v>0.8</v>
+      </c>
+      <c r="H17">
+        <v>2.1828750000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.4</v>
+      </c>
+      <c r="K17">
+        <v>1.4845060000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>0.4250000000000001</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.5295904196633789</v>
+      </c>
+      <c r="G18">
+        <v>0.85</v>
+      </c>
+      <c r="H18">
+        <v>2.2920180000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K18">
+        <v>1.5216179999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.5683121854901689</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+      <c r="H19">
+        <v>2.4066190000000001</v>
+      </c>
+      <c r="J19">
+        <v>0.45</v>
+      </c>
+      <c r="K19">
+        <v>1.5596589999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>0.47500000000000014</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.6080141974857831</v>
+      </c>
+      <c r="G20">
+        <v>0.95</v>
+      </c>
+      <c r="H20">
+        <v>2.5269499999999998</v>
+      </c>
+      <c r="J20">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="K20">
+        <v>1.5986499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.6487212707001284</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2.6532979999999999</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>1.6386160000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>0.52500000000000013</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.6904588483790917</v>
+      </c>
+      <c r="J22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K22">
+        <v>1.6795819999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000016</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.7332530178673955</v>
+      </c>
+      <c r="J23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K23">
+        <v>1.721571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>0.57500000000000018</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.7771305269140387</v>
+      </c>
+      <c r="J24">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K24">
+        <v>1.7646109999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>0.6000000000000002</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.8221188003905093</v>
+      </c>
+      <c r="J25">
+        <v>0.6</v>
+      </c>
+      <c r="K25">
+        <v>1.8087260000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>0.62500000000000022</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.8682459574322228</v>
+      </c>
+      <c r="J26">
+        <v>0.625</v>
+      </c>
+      <c r="K26">
+        <v>1.853944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>0.65000000000000024</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.9155408290138964</v>
+      </c>
+      <c r="J27">
+        <v>0.65</v>
+      </c>
+      <c r="K27">
+        <v>1.900293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>0.67500000000000027</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.9640329759698476</v>
+      </c>
+      <c r="J28">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="K28">
+        <v>1.9478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000029</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2.0137527074704771</v>
+      </c>
+      <c r="J29">
+        <v>0.7</v>
+      </c>
+      <c r="K29">
+        <v>1.9964949999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f>$A29+0.025</f>
+        <v>0.72500000000000031</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2.0647310999664872</v>
+      </c>
+      <c r="J30">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K30">
+        <v>2.0464069999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2.1170000166126752</v>
+      </c>
+      <c r="J31">
+        <v>0.75</v>
+      </c>
+      <c r="K31">
+        <v>2.0975679999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>0.77500000000000036</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2.170592127183443</v>
+      </c>
+      <c r="J32">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="K32">
+        <v>2.150007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000038</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2.2255409284924683</v>
+      </c>
+      <c r="J33">
+        <v>0.8</v>
+      </c>
+      <c r="K33">
+        <v>2.203757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0.8250000000000004</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2.2818807653293045</v>
+      </c>
+      <c r="J34">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K34">
+        <v>2.2588509999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0.85000000000000042</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2.3396468519259921</v>
+      </c>
+      <c r="J35">
+        <v>0.85</v>
+      </c>
+      <c r="K35">
+        <v>2.3153220000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0.87500000000000044</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2.398875293967099</v>
+      </c>
+      <c r="J36">
+        <v>0.875</v>
+      </c>
+      <c r="K36">
+        <v>2.373205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000047</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2.4596031111569507</v>
+      </c>
+      <c r="J37">
+        <v>0.9</v>
+      </c>
+      <c r="K37">
+        <v>2.4325350000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>0.92500000000000049</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2.5218682603581493</v>
+      </c>
+      <c r="J38">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K38">
+        <v>2.4933489999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000051</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2.5857096593158477</v>
+      </c>
+      <c r="J39">
+        <v>0.95</v>
+      </c>
+      <c r="K39">
+        <v>2.555682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>0.97500000000000053</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2.6511672109826079</v>
+      </c>
+      <c r="J40">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K40">
+        <v>2.6195740000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2.7182818284590464</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2.6850640000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FAB9A3-57F5-486D-8569-57309CD28F2C}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>EXP($A1)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B2">
+        <f>EXP($A2)</f>
+        <v>1.0253151205244289</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>1.105</v>
+      </c>
+      <c r="G2">
+        <v>0.05</v>
+      </c>
+      <c r="H2">
+        <v>1.05125</v>
+      </c>
+      <c r="J2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.0253129999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f>$A2+0.025</f>
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B41" si="0">EXP($A3)</f>
+        <v>1.0512710963760241</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>1.221025</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>1.105127</v>
+      </c>
+      <c r="J3">
+        <v>0.05</v>
+      </c>
+      <c r="K3">
+        <v>1.051266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" ref="A4:A41" si="1">$A3+0.025</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.0778841508846315</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>1.3492329999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.15</v>
+      </c>
+      <c r="H4">
+        <v>1.161764</v>
+      </c>
+      <c r="J4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.0778760000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.1051709180756477</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>1.4909019999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>1.2213050000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>1.1051599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.1331484530668263</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>1.6474470000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <v>1.2838970000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.125</v>
+      </c>
+      <c r="K6">
+        <v>1.1331340000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.1618342427282831</v>
+      </c>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>1.8204290000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>1.349696</v>
+      </c>
+      <c r="J7">
+        <v>0.15</v>
+      </c>
+      <c r="K7">
+        <v>1.161816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.1912462166123581</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>2.011574</v>
+      </c>
+      <c r="G8">
+        <v>0.35</v>
+      </c>
+      <c r="H8">
+        <v>1.418868</v>
+      </c>
+      <c r="J8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K8">
+        <v>1.191225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.2214027581601699</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>2.2227890000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.4</v>
+      </c>
+      <c r="H9">
+        <v>1.4915849999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>1.2213780000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.2523227161918644</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>2.4561820000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.45</v>
+      </c>
+      <c r="H10">
+        <v>1.5680289999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K10">
+        <v>1.252294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.2840254166877414</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2.7140810000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>1.64839</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <v>1.2839929999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.3165306748676215</v>
+      </c>
+      <c r="G12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H12">
+        <v>1.7328699999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K12">
+        <v>1.3164940000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.3498588075760032</v>
+      </c>
+      <c r="G13">
+        <v>0.6</v>
+      </c>
+      <c r="H13">
+        <v>1.82168</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <v>1.349817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.3840306459807514</v>
+      </c>
+      <c r="G14">
+        <v>0.65</v>
+      </c>
+      <c r="H14">
+        <v>1.915041</v>
+      </c>
+      <c r="J14">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K14">
+        <v>1.383985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.4190675485932573</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>2.0131869999999998</v>
+      </c>
+      <c r="J15">
+        <v>0.35</v>
+      </c>
+      <c r="K15">
+        <v>1.419017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.4549914146182015</v>
+      </c>
+      <c r="G16">
+        <v>0.75</v>
+      </c>
+      <c r="H16">
+        <v>2.1163630000000002</v>
+      </c>
+      <c r="J16">
+        <v>0.375</v>
+      </c>
+      <c r="K16">
+        <v>1.454936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.4918246976412703</v>
+      </c>
+      <c r="G17">
+        <v>0.8</v>
+      </c>
+      <c r="H17">
+        <v>2.2248260000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.4</v>
+      </c>
+      <c r="K17">
+        <v>1.4917640000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>0.4250000000000001</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.5295904196633789</v>
+      </c>
+      <c r="G18">
+        <v>0.85</v>
+      </c>
+      <c r="H18">
+        <v>2.3388490000000002</v>
+      </c>
+      <c r="J18">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K18">
+        <v>1.5295240000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.5683121854901689</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+      <c r="H19">
+        <v>2.4587150000000002</v>
+      </c>
+      <c r="J19">
+        <v>0.45</v>
+      </c>
+      <c r="K19">
+        <v>1.5682400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>0.47500000000000014</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.6080141974857831</v>
+      </c>
+      <c r="G20">
+        <v>0.95</v>
+      </c>
+      <c r="H20">
+        <v>2.584724</v>
+      </c>
+      <c r="J20">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="K20">
+        <v>1.607936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.6487212707001284</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2.7171910000000001</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>1.6486369999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>0.52500000000000013</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.6904588483790917</v>
+      </c>
+      <c r="J22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K22">
+        <v>1.6903680000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000016</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.7332530178673955</v>
+      </c>
+      <c r="J23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K23">
+        <v>1.7331559999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>0.57500000000000018</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.7771305269140387</v>
+      </c>
+      <c r="J24">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K24">
+        <v>1.777026</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>0.6000000000000002</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.8221188003905093</v>
+      </c>
+      <c r="J25">
+        <v>0.6</v>
+      </c>
+      <c r="K25">
+        <v>1.8220069999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>0.62500000000000022</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.8682459574322228</v>
+      </c>
+      <c r="J26">
+        <v>0.625</v>
+      </c>
+      <c r="K26">
+        <v>1.8681270000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>0.65000000000000024</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.9155408290138964</v>
+      </c>
+      <c r="J27">
+        <v>0.65</v>
+      </c>
+      <c r="K27">
+        <v>1.9154139999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>0.67500000000000027</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.9640329759698476</v>
+      </c>
+      <c r="J28">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="K28">
+        <v>1.963897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000029</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2.0137527074704771</v>
+      </c>
+      <c r="J29">
+        <v>0.7</v>
+      </c>
+      <c r="K29">
+        <v>2.0136090000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f>$A29+0.025</f>
+        <v>0.72500000000000031</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2.0647310999664872</v>
+      </c>
+      <c r="J30">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K30">
+        <v>2.064578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2.1170000166126752</v>
+      </c>
+      <c r="J31">
+        <v>0.75</v>
+      </c>
+      <c r="K31">
+        <v>2.116838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>0.77500000000000036</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2.170592127183443</v>
+      </c>
+      <c r="J32">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="K32">
+        <v>2.17042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000038</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2.2255409284924683</v>
+      </c>
+      <c r="J33">
+        <v>0.8</v>
+      </c>
+      <c r="K33">
+        <v>2.2253590000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0.8250000000000004</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2.2818807653293045</v>
+      </c>
+      <c r="J34">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K34">
+        <v>2.2816879999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0.85000000000000042</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2.3396468519259921</v>
+      </c>
+      <c r="J35">
+        <v>0.85</v>
+      </c>
+      <c r="K35">
+        <v>2.3394439999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0.87500000000000044</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2.398875293967099</v>
+      </c>
+      <c r="J36">
+        <v>0.875</v>
+      </c>
+      <c r="K36">
+        <v>2.3986610000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000047</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2.4596031111569507</v>
+      </c>
+      <c r="J37">
+        <v>0.9</v>
+      </c>
+      <c r="K37">
+        <v>2.4593769999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>0.92500000000000049</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2.5218682603581493</v>
+      </c>
+      <c r="J38">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K38">
+        <v>2.52163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000051</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2.5857096593158477</v>
+      </c>
+      <c r="J39">
+        <v>0.95</v>
+      </c>
+      <c r="K39">
+        <v>2.5854590000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>0.97500000000000053</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2.6511672109826079</v>
+      </c>
+      <c r="J40">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K40">
+        <v>2.650903</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2.7182818284590464</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2.7180040000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AF882F-2F6E-4907-87D7-5C610035CCE7}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>EXP($A1)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B2">
+        <f>EXP($A2)</f>
+        <v>1.0253151205244289</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>1.1051709999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.05</v>
+      </c>
+      <c r="H2">
+        <v>1.0512710000000001</v>
+      </c>
+      <c r="J2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.025315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f>$A2+0.025</f>
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B41" si="0">EXP($A3)</f>
+        <v>1.0512710963760241</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>1.221403</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>1.1051709999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.05</v>
+      </c>
+      <c r="K3">
+        <v>1.0512710000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" ref="A4:A41" si="1">$A3+0.025</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.0778841508846315</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>1.349858</v>
+      </c>
+      <c r="G4">
+        <v>0.15</v>
+      </c>
+      <c r="H4">
+        <v>1.161834</v>
+      </c>
+      <c r="J4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.0778840000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.1051709180756477</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>1.491824</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>1.221403</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>1.1051709999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.1331484530668263</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>1.6487210000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <v>1.284025</v>
+      </c>
+      <c r="J6">
+        <v>0.125</v>
+      </c>
+      <c r="K6">
+        <v>1.133148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.1618342427282831</v>
+      </c>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>1.8221179999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>1.3498589999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.15</v>
+      </c>
+      <c r="K7">
+        <v>1.161834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.1912462166123581</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>2.0137520000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.35</v>
+      </c>
+      <c r="H8">
+        <v>1.419068</v>
+      </c>
+      <c r="J8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K8">
+        <v>1.191246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.2214027581601699</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>2.2255400000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.4</v>
+      </c>
+      <c r="H9">
+        <v>1.491825</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>1.221403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.2523227161918644</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>2.4596010000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.45</v>
+      </c>
+      <c r="H10">
+        <v>1.5683119999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K10">
+        <v>1.2523230000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.2840254166877414</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2.71828</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>1.6487210000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <v>1.284025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.3165306748676215</v>
+      </c>
+      <c r="G12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H12">
+        <v>1.7332529999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K12">
+        <v>1.3165309999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.3498588075760032</v>
+      </c>
+      <c r="G13">
+        <v>0.6</v>
+      </c>
+      <c r="H13">
+        <v>1.822119</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <v>1.3498589999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.3840306459807514</v>
+      </c>
+      <c r="G14">
+        <v>0.65</v>
+      </c>
+      <c r="H14">
+        <v>1.9155409999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K14">
+        <v>1.384031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.4190675485932573</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>2.0137529999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.35</v>
+      </c>
+      <c r="K15">
+        <v>1.419068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.4549914146182015</v>
+      </c>
+      <c r="G16">
+        <v>0.75</v>
+      </c>
+      <c r="H16">
+        <v>2.117</v>
+      </c>
+      <c r="J16">
+        <v>0.375</v>
+      </c>
+      <c r="K16">
+        <v>1.4549909999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.4918246976412703</v>
+      </c>
+      <c r="G17">
+        <v>0.8</v>
+      </c>
+      <c r="H17">
+        <v>2.2255410000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.4</v>
+      </c>
+      <c r="K17">
+        <v>1.491825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>0.4250000000000001</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.5295904196633789</v>
+      </c>
+      <c r="G18">
+        <v>0.85</v>
+      </c>
+      <c r="H18">
+        <v>2.3396469999999998</v>
+      </c>
+      <c r="J18">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K18">
+        <v>1.52959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.5683121854901689</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+      <c r="H19">
+        <v>2.459603</v>
+      </c>
+      <c r="J19">
+        <v>0.45</v>
+      </c>
+      <c r="K19">
+        <v>1.5683119999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>0.47500000000000014</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.6080141974857831</v>
+      </c>
+      <c r="G20">
+        <v>0.95</v>
+      </c>
+      <c r="H20">
+        <v>2.5857100000000002</v>
+      </c>
+      <c r="J20">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="K20">
+        <v>1.6080140000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.6487212707001284</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2.7182819999999999</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>1.6487210000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>0.52500000000000013</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.6904588483790917</v>
+      </c>
+      <c r="J22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K22">
+        <v>1.6904589999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000016</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.7332530178673955</v>
+      </c>
+      <c r="J23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K23">
+        <v>1.7332529999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>0.57500000000000018</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.7771305269140387</v>
+      </c>
+      <c r="J24">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K24">
+        <v>1.777131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>0.6000000000000002</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.8221188003905093</v>
+      </c>
+      <c r="J25">
+        <v>0.6</v>
+      </c>
+      <c r="K25">
+        <v>1.822119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>0.62500000000000022</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.8682459574322228</v>
+      </c>
+      <c r="J26">
+        <v>0.625</v>
+      </c>
+      <c r="K26">
+        <v>1.8682460000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>0.65000000000000024</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.9155408290138964</v>
+      </c>
+      <c r="J27">
+        <v>0.65</v>
+      </c>
+      <c r="K27">
+        <v>1.9155409999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>0.67500000000000027</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.9640329759698476</v>
+      </c>
+      <c r="J28">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="K28">
+        <v>1.9640329999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000029</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2.0137527074704771</v>
+      </c>
+      <c r="J29">
+        <v>0.7</v>
+      </c>
+      <c r="K29">
+        <v>2.0137529999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f>$A29+0.025</f>
+        <v>0.72500000000000031</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2.0647310999664872</v>
+      </c>
+      <c r="J30">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K30">
+        <v>2.0647310000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2.1170000166126752</v>
+      </c>
+      <c r="J31">
+        <v>0.75</v>
+      </c>
+      <c r="K31">
+        <v>2.117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>0.77500000000000036</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2.170592127183443</v>
+      </c>
+      <c r="J32">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="K32">
+        <v>2.1705920000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000038</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2.2255409284924683</v>
+      </c>
+      <c r="J33">
+        <v>0.8</v>
+      </c>
+      <c r="K33">
+        <v>2.2255410000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0.8250000000000004</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2.2818807653293045</v>
+      </c>
+      <c r="J34">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K34">
+        <v>2.2818809999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0.85000000000000042</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2.3396468519259921</v>
+      </c>
+      <c r="J35">
+        <v>0.85</v>
+      </c>
+      <c r="K35">
+        <v>2.3396469999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0.87500000000000044</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2.398875293967099</v>
+      </c>
+      <c r="J36">
+        <v>0.875</v>
+      </c>
+      <c r="K36">
+        <v>2.3988749999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000047</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2.4596031111569507</v>
+      </c>
+      <c r="J37">
+        <v>0.9</v>
+      </c>
+      <c r="K37">
+        <v>2.459603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>0.92500000000000049</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2.5218682603581493</v>
+      </c>
+      <c r="J38">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K38">
+        <v>2.521868</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000051</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2.5857096593158477</v>
+      </c>
+      <c r="J39">
+        <v>0.95</v>
+      </c>
+      <c r="K39">
+        <v>2.5857100000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>0.97500000000000053</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2.6511672109826079</v>
+      </c>
+      <c r="J40">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K40">
+        <v>2.6511670000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2.7182818284590464</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2.7182819999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>